--- a/wedgeautodraw_1_2/wedgeautodraw_1_2/Resources/Templates/Copy.xlsx
+++ b/wedgeautodraw_1_2/wedgeautodraw_1_2/Resources/Templates/Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounir\Desktop\wedgeautodraw_1_2\wedgeautodraw_1_2\wedgeautodraw_1_2\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93941031-537B-48EA-A116-7F366441468F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ED8745-6013-4EF3-BE55-18B0F9898D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,28 +396,28 @@
     <t>2027632-TF-B</t>
   </si>
   <si>
-    <t>CKVD-500-G SPECIAL (2027632)</t>
-  </si>
-  <si>
     <t>FOR COINING USE¶XAC-123-LB</t>
   </si>
   <si>
     <t>2032277-TF-A</t>
   </si>
   <si>
-    <t>CKVD-500-G SPECIAL (JOINT=0.47 2032277)</t>
-  </si>
-  <si>
     <t>NOT TO SCALE SEE DWG 2032277-DW</t>
   </si>
   <si>
     <t>2032090-TF-A</t>
   </si>
   <si>
-    <t>CKVD-500-G SPECIAL ¶(JOINT=0.47 2032090)</t>
-  </si>
-  <si>
     <t>NOT TO SCALE SEE DWG 2032090-DW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    CKVD-500-G SPECIAL (2027632)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    CKVD-500-G SPECIAL (JOINT=0.47 2032277)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    CKVD-500-G SPECIAL ¶(JOINT=0.47 2032090)</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
   <dimension ref="A1:DC4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1265,7 @@
         <v>122</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5">
         <v>2.992</v>
@@ -1465,7 +1465,7 @@
       <c r="CV2" s="8"/>
       <c r="CW2" s="8"/>
       <c r="CX2" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CY2" s="8" t="s">
         <v>110</v>
@@ -1489,10 +1489,10 @@
         <v>2032277</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E3" s="5">
         <v>2.835</v>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="CW3" s="8"/>
       <c r="CX3" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CY3" s="8" t="s">
         <v>110</v>
@@ -1739,7 +1739,7 @@
         <v>111</v>
       </c>
       <c r="DA3" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="DB3" s="8"/>
       <c r="DC3" s="8" t="s">
@@ -1754,10 +1754,10 @@
         <v>2032090</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4" s="5">
         <v>2.835</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="CZ4" s="8"/>
       <c r="DA4" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="DB4" s="8"/>
       <c r="DC4" s="8" t="s">
@@ -2015,6 +2015,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="de1cf861-4600-4865-81a1-6d5ec92f3e6a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100324219C90824B444ADDBA2C0D522B906" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="de5ea21bbfc6a4660798b6bae49d70ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de1cf861-4600-4865-81a1-6d5ec92f3e6a" xmlns:ns3="85a9a5bd-3c1e-488a-8100-398586daa683" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5934ad8ff0afc0aa76bea2f3442904ce" ns2:_="" ns3:_="">
     <xsd:import namespace="de1cf861-4600-4865-81a1-6d5ec92f3e6a"/>
@@ -2197,14 +2205,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="de1cf861-4600-4865-81a1-6d5ec92f3e6a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2215,6 +2215,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4F63B5-1686-4498-BFE5-497EE0DF0537}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="de1cf861-4600-4865-81a1-6d5ec92f3e6a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9615E88B-117A-4ED9-BAA3-61812C90AAB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2233,16 +2243,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4F63B5-1686-4498-BFE5-497EE0DF0537}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="de1cf861-4600-4865-81a1-6d5ec92f3e6a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A724B3-3295-4A58-8567-4ED3DA1DFA3E}">
   <ds:schemaRefs>

--- a/wedgeautodraw_1_2/wedgeautodraw_1_2/Resources/Templates/Copy.xlsx
+++ b/wedgeautodraw_1_2/wedgeautodraw_1_2/Resources/Templates/Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounir\Desktop\wedgeautodraw_1_2\wedgeautodraw_1_2\wedgeautodraw_1_2\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ED8745-6013-4EF3-BE55-18B0F9898D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EFE284-F436-48A7-8D03-25488297A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6495" yWindow="5460" windowWidth="24705" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>drawing#</t>
   </si>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,18 +1361,42 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
+      <c r="AS2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="BE2" s="5"/>
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
@@ -2015,14 +2039,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="de1cf861-4600-4865-81a1-6d5ec92f3e6a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100324219C90824B444ADDBA2C0D522B906" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="de5ea21bbfc6a4660798b6bae49d70ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de1cf861-4600-4865-81a1-6d5ec92f3e6a" xmlns:ns3="85a9a5bd-3c1e-488a-8100-398586daa683" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5934ad8ff0afc0aa76bea2f3442904ce" ns2:_="" ns3:_="">
     <xsd:import namespace="de1cf861-4600-4865-81a1-6d5ec92f3e6a"/>
@@ -2205,6 +2221,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="de1cf861-4600-4865-81a1-6d5ec92f3e6a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2215,16 +2239,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4F63B5-1686-4498-BFE5-497EE0DF0537}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="de1cf861-4600-4865-81a1-6d5ec92f3e6a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9615E88B-117A-4ED9-BAA3-61812C90AAB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2243,6 +2257,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4F63B5-1686-4498-BFE5-497EE0DF0537}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="de1cf861-4600-4865-81a1-6d5ec92f3e6a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A724B3-3295-4A58-8567-4ED3DA1DFA3E}">
   <ds:schemaRefs>
